--- a/medicine/Maladies infectieuses/En_attendant_la_deuxième_vague/En_attendant_la_deuxième_vague.xlsx
+++ b/medicine/Maladies infectieuses/En_attendant_la_deuxième_vague/En_attendant_la_deuxième_vague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>En_attendant_la_deuxi%C3%A8me_vague</t>
+          <t>En_attendant_la_deuxième_vague</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En attendant la deuxième vague est un film documentaire belge francophone de 2021 réalisé par Christophe Hermans. 
 Tourné pendant les premières semaines de la pandémie de Covid-19 en Belgique, le film suit l'équipe médicale du CHU de Liège chargée de soigner les patients touchés par le virus. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>En_attendant_la_deuxi%C3%A8me_vague</t>
+          <t>En_attendant_la_deuxième_vague</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>En_attendant_la_deuxi%C3%A8me_vague</t>
+          <t>En_attendant_la_deuxième_vague</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : En attendant la deuxième vague
 Réalisation : Christophe Hermans
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>En_attendant_la_deuxi%C3%A8me_vague</t>
+          <t>En_attendant_la_deuxième_vague</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christophe Hermans décide de réaliser le film alors que la pandémie a mis à l'arrêt l'ensemble de ses projets en cours. Son intention était alors de conserver une trace de ce qu'il considérait être un événement historique majeur. Le réalisateur obtient en avril 2020 l'accès sans restriction aux unités Covid du CHU de Liège[1]. En raison des restrictions sanitaires, Hermans ne pouvait être accompagné que d'un preneur de son et a dû prendre en charge lui-même la photographie[2]. 
-Le film est diffusé le 16 mars 2021 sur La Trois dans le cadre d'une soirée spéciale Covid organisée par la RTBF à l'occasion du premier anniversaire du début de la pandémie en Belgique[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Hermans décide de réaliser le film alors que la pandémie a mis à l'arrêt l'ensemble de ses projets en cours. Son intention était alors de conserver une trace de ce qu'il considérait être un événement historique majeur. Le réalisateur obtient en avril 2020 l'accès sans restriction aux unités Covid du CHU de Liège. En raison des restrictions sanitaires, Hermans ne pouvait être accompagné que d'un preneur de son et a dû prendre en charge lui-même la photographie. 
+Le film est diffusé le 16 mars 2021 sur La Trois dans le cadre d'une soirée spéciale Covid organisée par la RTBF à l'occasion du premier anniversaire du début de la pandémie en Belgique. 
 </t>
         </is>
       </c>
